--- a/biology/Botanique/Anchomanes/Anchomanes.xlsx
+++ b/biology/Botanique/Anchomanes/Anchomanes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anchomanes est un genre de plantes de la famille des Araceae, présente en Afrique tropicale[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anchomanes est un genre de plantes de la famille des Araceae, présente en Afrique tropicale.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,30 +551,32 @@
           <t>Liste des variétés et espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (26 juin 2020)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (26 juin 2020) :
 Anchomanes abbreviatus Engl.
 Anchomanes boehmii Engl.
 Anchomanes dalzielii N.E.Br.
 Anchomanes difformis (Blume) Engl.
 Anchomanes giganteus Engl.
 Anchomanes nigritianus Rendle
-Selon GRIN            (26 juin 2020)[4] :
+Selon GRIN            (26 juin 2020) :
 Anchomanes difformis (Blume) Engl.
-Selon NCBI  (26 juin 2020)[5] :
+Selon NCBI  (26 juin 2020) :
 Anchomanes dalzielii
 Anchomanes difformis
 variété Anchomanes difformis var. welwitschii
 Anchomanes hookeri
-Selon The Plant List            (26 juin 2020)[6] :
+Selon The Plant List            (26 juin 2020) :
 Anchomanes abbreviatus Engl.
 Anchomanes boehmii Engl.
 Anchomanes dalzielii N.E.Br.
 Anchomanes difformis (Blume) Engl.
 Anchomanes giganteus Engl.
 Anchomanes nigritianus Rendle
-Selon Tropicos                                           (26 juin 2020)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (26 juin 2020) (Attention liste brute contenant possiblement des synonymes) :
 Anchomanes abbreviatus Engl.
 Anchomanes boehmii Engl.
 Anchomanes dalzielii N.E. Br.
